--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nppa-Npr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nppa-Npr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Nppa</t>
+  </si>
+  <si>
+    <t>Npr1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nppa</t>
-  </si>
-  <si>
-    <t>Npr1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03376566666666667</v>
+        <v>0.3176433333333333</v>
       </c>
       <c r="H2">
-        <v>0.101297</v>
+        <v>0.9529300000000001</v>
       </c>
       <c r="I2">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="J2">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.27278133333333</v>
+        <v>34.08366866666667</v>
       </c>
       <c r="N2">
-        <v>102.818344</v>
+        <v>102.251006</v>
       </c>
       <c r="O2">
-        <v>0.9044737530016045</v>
+        <v>0.9082105861423315</v>
       </c>
       <c r="P2">
-        <v>0.9044737530016046</v>
+        <v>0.9082105861423314</v>
       </c>
       <c r="Q2">
-        <v>1.157243310240889</v>
+        <v>10.82645012750889</v>
       </c>
       <c r="R2">
-        <v>10.415189792168</v>
+        <v>97.43805114758001</v>
       </c>
       <c r="S2">
-        <v>0.02645187246863036</v>
+        <v>0.3314431787241113</v>
       </c>
       <c r="T2">
-        <v>0.02645187246863036</v>
+        <v>0.3314431787241112</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03376566666666667</v>
+        <v>0.3176433333333333</v>
       </c>
       <c r="H3">
-        <v>0.101297</v>
+        <v>0.9529300000000001</v>
       </c>
       <c r="I3">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="J3">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.958342</v>
       </c>
       <c r="O3">
-        <v>0.07880486004921358</v>
+        <v>0.07956949625203165</v>
       </c>
       <c r="P3">
-        <v>0.0788048600492136</v>
+        <v>0.07956949625203165</v>
       </c>
       <c r="Q3">
-        <v>0.1008281299526667</v>
+        <v>0.9485192046733334</v>
       </c>
       <c r="R3">
-        <v>0.907453169574</v>
+        <v>8.53667284206</v>
       </c>
       <c r="S3">
-        <v>0.002304694968773034</v>
+        <v>0.02903816270108591</v>
       </c>
       <c r="T3">
-        <v>0.002304694968773034</v>
+        <v>0.02903816270108591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03376566666666667</v>
+        <v>0.3176433333333333</v>
       </c>
       <c r="H4">
-        <v>0.101297</v>
+        <v>0.9529300000000001</v>
       </c>
       <c r="I4">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="J4">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.059479</v>
+        <v>0.04252533333333333</v>
       </c>
       <c r="N4">
-        <v>0.178437</v>
+        <v>0.127576</v>
       </c>
       <c r="O4">
-        <v>0.001569676934928531</v>
+        <v>0.001133151430683177</v>
       </c>
       <c r="P4">
-        <v>0.001569676934928531</v>
+        <v>0.001133151430683176</v>
       </c>
       <c r="Q4">
-        <v>0.002008348087666667</v>
+        <v>0.01350788863111111</v>
       </c>
       <c r="R4">
-        <v>0.018075132789</v>
+        <v>0.12157099768</v>
       </c>
       <c r="S4">
-        <v>4.590613487885971E-05</v>
+        <v>0.0004135332905077454</v>
       </c>
       <c r="T4">
-        <v>4.590613487885971E-05</v>
+        <v>0.0004135332905077453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03376566666666667</v>
+        <v>0.3176433333333333</v>
       </c>
       <c r="H5">
-        <v>0.101297</v>
+        <v>0.9529300000000001</v>
       </c>
       <c r="I5">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="J5">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3801906666666666</v>
+        <v>0.1141723333333333</v>
       </c>
       <c r="N5">
-        <v>1.140572</v>
+        <v>0.342517</v>
       </c>
       <c r="O5">
-        <v>0.01003339868427122</v>
+        <v>0.003042293445344811</v>
       </c>
       <c r="P5">
-        <v>0.01003339868427122</v>
+        <v>0.003042293445344811</v>
       </c>
       <c r="Q5">
-        <v>0.01283739132044444</v>
+        <v>0.03626608053444445</v>
       </c>
       <c r="R5">
-        <v>0.115536521884</v>
+        <v>0.32639472481</v>
       </c>
       <c r="S5">
-        <v>0.0002934327077402712</v>
+        <v>0.001110257274603698</v>
       </c>
       <c r="T5">
-        <v>0.0002934327077402713</v>
+        <v>0.001110257274603698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03376566666666667</v>
+        <v>0.3176433333333333</v>
       </c>
       <c r="H6">
-        <v>0.101297</v>
+        <v>0.9529300000000001</v>
       </c>
       <c r="I6">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="J6">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1334676666666667</v>
+        <v>0.057203</v>
       </c>
       <c r="N6">
-        <v>0.4004030000000001</v>
+        <v>0.171609</v>
       </c>
       <c r="O6">
-        <v>0.003522270346263323</v>
+        <v>0.001524259922462761</v>
       </c>
       <c r="P6">
-        <v>0.003522270346263324</v>
+        <v>0.001524259922462761</v>
       </c>
       <c r="Q6">
-        <v>0.004506624743444445</v>
+        <v>0.01817015159666667</v>
       </c>
       <c r="R6">
-        <v>0.040559622691</v>
+        <v>0.16353136437</v>
       </c>
       <c r="S6">
-        <v>0.0001030108896916002</v>
+        <v>0.0005562647712010384</v>
       </c>
       <c r="T6">
-        <v>0.0001030108896916002</v>
+        <v>0.0005562647712010383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,46 +853,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03376566666666667</v>
+        <v>0.3176433333333333</v>
       </c>
       <c r="H7">
-        <v>0.101297</v>
+        <v>0.9529300000000001</v>
       </c>
       <c r="I7">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="J7">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.060478</v>
+        <v>0.244693</v>
       </c>
       <c r="N7">
-        <v>0.181434</v>
+        <v>0.7340789999999999</v>
       </c>
       <c r="O7">
-        <v>0.001596040983718752</v>
+        <v>0.006520212807146136</v>
       </c>
       <c r="P7">
-        <v>0.001596040983718753</v>
+        <v>0.006520212807146136</v>
       </c>
       <c r="Q7">
-        <v>0.002042079988666666</v>
+        <v>0.07772510016333332</v>
       </c>
       <c r="R7">
-        <v>0.018378719898</v>
+        <v>0.6995259014699999</v>
       </c>
       <c r="S7">
-        <v>4.667716715485596E-05</v>
+        <v>0.002379492258439167</v>
       </c>
       <c r="T7">
-        <v>4.667716715485596E-05</v>
+        <v>0.002379492258439167</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.223331</v>
       </c>
       <c r="I8">
-        <v>0.06447819608524724</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="J8">
-        <v>0.06447819608524723</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.27278133333333</v>
+        <v>34.08366866666667</v>
       </c>
       <c r="N8">
-        <v>102.818344</v>
+        <v>102.251006</v>
       </c>
       <c r="O8">
-        <v>0.9044737530016045</v>
+        <v>0.9082105861423315</v>
       </c>
       <c r="P8">
-        <v>0.9044737530016046</v>
+        <v>0.9082105861423314</v>
       </c>
       <c r="Q8">
-        <v>2.551391509318222</v>
+        <v>2.537313268998445</v>
       </c>
       <c r="R8">
-        <v>22.962523583864</v>
+        <v>22.835819420986</v>
       </c>
       <c r="S8">
-        <v>0.05831883599999693</v>
+        <v>0.07767783210480779</v>
       </c>
       <c r="T8">
-        <v>0.05831883599999693</v>
+        <v>0.07767783210480779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.223331</v>
       </c>
       <c r="I9">
-        <v>0.06447819608524724</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="J9">
-        <v>0.06447819608524723</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.958342</v>
       </c>
       <c r="O9">
-        <v>0.07880486004921358</v>
+        <v>0.07956949625203165</v>
       </c>
       <c r="P9">
-        <v>0.0788048600492136</v>
+        <v>0.07956949625203165</v>
       </c>
       <c r="Q9">
         <v>0.2222972752446667</v>
@@ -1013,10 +1013,10 @@
         <v>2.000675477202</v>
       </c>
       <c r="S9">
-        <v>0.00508119521872366</v>
+        <v>0.006805454665291488</v>
       </c>
       <c r="T9">
-        <v>0.00508119521872366</v>
+        <v>0.006805454665291488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.223331</v>
       </c>
       <c r="I10">
-        <v>0.06447819608524724</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="J10">
-        <v>0.06447819608524723</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.059479</v>
+        <v>0.04252533333333333</v>
       </c>
       <c r="N10">
-        <v>0.178437</v>
+        <v>0.127576</v>
       </c>
       <c r="O10">
-        <v>0.001569676934928531</v>
+        <v>0.001133151430683177</v>
       </c>
       <c r="P10">
-        <v>0.001569676934928531</v>
+        <v>0.001133151430683176</v>
       </c>
       <c r="Q10">
-        <v>0.004427834849666667</v>
+        <v>0.003165741739555556</v>
       </c>
       <c r="R10">
-        <v>0.039850513647</v>
+        <v>0.028491675656</v>
       </c>
       <c r="S10">
-        <v>0.0001012099372008117</v>
+        <v>9.691667100666919E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001012099372008117</v>
+        <v>9.691667100666918E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.223331</v>
       </c>
       <c r="I11">
-        <v>0.06447819608524724</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="J11">
-        <v>0.06447819608524723</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3801906666666666</v>
+        <v>0.1141723333333333</v>
       </c>
       <c r="N11">
-        <v>1.140572</v>
+        <v>0.342517</v>
       </c>
       <c r="O11">
-        <v>0.01003339868427122</v>
+        <v>0.003042293445344811</v>
       </c>
       <c r="P11">
-        <v>0.01003339868427122</v>
+        <v>0.003042293445344811</v>
       </c>
       <c r="Q11">
-        <v>0.02830278725911111</v>
+        <v>0.008499407125222224</v>
       </c>
       <c r="R11">
-        <v>0.254725085332</v>
+        <v>0.076494664127</v>
       </c>
       <c r="S11">
-        <v>0.0006469354477659016</v>
+        <v>0.0002602026039630598</v>
       </c>
       <c r="T11">
-        <v>0.0006469354477659015</v>
+        <v>0.0002602026039630598</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.223331</v>
       </c>
       <c r="I12">
-        <v>0.06447819608524724</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="J12">
-        <v>0.06447819608524723</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1334676666666667</v>
+        <v>0.057203</v>
       </c>
       <c r="N12">
-        <v>0.4004030000000001</v>
+        <v>0.171609</v>
       </c>
       <c r="O12">
-        <v>0.003522270346263323</v>
+        <v>0.001524259922462761</v>
       </c>
       <c r="P12">
-        <v>0.003522270346263324</v>
+        <v>0.001524259922462761</v>
       </c>
       <c r="Q12">
-        <v>0.009935822488111113</v>
+        <v>0.004258401064333333</v>
       </c>
       <c r="R12">
-        <v>0.08942240239300002</v>
+        <v>0.038325609579</v>
       </c>
       <c r="S12">
-        <v>0.0002271096380516182</v>
+        <v>0.0001303675690943711</v>
       </c>
       <c r="T12">
-        <v>0.0002271096380516182</v>
+        <v>0.0001303675690943711</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,40 +1231,40 @@
         <v>0.223331</v>
       </c>
       <c r="I13">
-        <v>0.06447819608524724</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="J13">
-        <v>0.06447819608524723</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.060478</v>
+        <v>0.244693</v>
       </c>
       <c r="N13">
-        <v>0.181434</v>
+        <v>0.7340789999999999</v>
       </c>
       <c r="O13">
-        <v>0.001596040983718752</v>
+        <v>0.006520212807146136</v>
       </c>
       <c r="P13">
-        <v>0.001596040983718753</v>
+        <v>0.006520212807146136</v>
       </c>
       <c r="Q13">
-        <v>0.004502204072666667</v>
+        <v>0.01821584412766666</v>
       </c>
       <c r="R13">
-        <v>0.040519836654</v>
+        <v>0.163942597149</v>
       </c>
       <c r="S13">
-        <v>0.0001029098435083086</v>
+        <v>0.0005576636117757628</v>
       </c>
       <c r="T13">
-        <v>0.0001029098435083086</v>
+        <v>0.0005576636117757628</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1293,10 +1293,10 @@
         <v>0.934476</v>
       </c>
       <c r="I14">
-        <v>0.2697938341070317</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="J14">
-        <v>0.2697938341070316</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.27278133333333</v>
+        <v>34.08366866666667</v>
       </c>
       <c r="N14">
-        <v>102.818344</v>
+        <v>102.251006</v>
       </c>
       <c r="O14">
-        <v>0.9044737530016045</v>
+        <v>0.9082105861423315</v>
       </c>
       <c r="P14">
-        <v>0.9044737530016046</v>
+        <v>0.9082105861423314</v>
       </c>
       <c r="Q14">
-        <v>10.67569720308267</v>
+        <v>10.61679012031733</v>
       </c>
       <c r="R14">
-        <v>96.081274827744</v>
+        <v>95.551111082856</v>
       </c>
       <c r="S14">
-        <v>0.2440214416714792</v>
+        <v>0.3250246039912613</v>
       </c>
       <c r="T14">
-        <v>0.2440214416714792</v>
+        <v>0.3250246039912612</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1355,10 +1355,10 @@
         <v>0.934476</v>
       </c>
       <c r="I15">
-        <v>0.2697938341070317</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="J15">
-        <v>0.2697938341070316</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>8.958342</v>
       </c>
       <c r="O15">
-        <v>0.07880486004921358</v>
+        <v>0.07956949625203165</v>
       </c>
       <c r="P15">
-        <v>0.0788048600492136</v>
+        <v>0.07956949625203165</v>
       </c>
       <c r="Q15">
         <v>0.930150622088</v>
@@ -1385,10 +1385,10 @@
         <v>8.371355598792</v>
       </c>
       <c r="S15">
-        <v>0.02126106533894538</v>
+        <v>0.02847582312264275</v>
       </c>
       <c r="T15">
-        <v>0.02126106533894538</v>
+        <v>0.02847582312264275</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1417,10 +1417,10 @@
         <v>0.934476</v>
       </c>
       <c r="I16">
-        <v>0.2697938341070317</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="J16">
-        <v>0.2697938341070316</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.059479</v>
+        <v>0.04252533333333333</v>
       </c>
       <c r="N16">
-        <v>0.178437</v>
+        <v>0.127576</v>
       </c>
       <c r="O16">
-        <v>0.001569676934928531</v>
+        <v>0.001133151430683177</v>
       </c>
       <c r="P16">
-        <v>0.001569676934928531</v>
+        <v>0.001133151430683176</v>
       </c>
       <c r="Q16">
-        <v>0.018527232668</v>
+        <v>0.01324630113066667</v>
       </c>
       <c r="R16">
-        <v>0.166745094012</v>
+        <v>0.119216710176</v>
       </c>
       <c r="S16">
-        <v>0.0004234891585837419</v>
+        <v>0.0004055249967788986</v>
       </c>
       <c r="T16">
-        <v>0.0004234891585837419</v>
+        <v>0.0004055249967788985</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1479,10 +1479,10 @@
         <v>0.934476</v>
       </c>
       <c r="I17">
-        <v>0.2697938341070317</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="J17">
-        <v>0.2697938341070316</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3801906666666666</v>
+        <v>0.1141723333333333</v>
       </c>
       <c r="N17">
-        <v>1.140572</v>
+        <v>0.342517</v>
       </c>
       <c r="O17">
-        <v>0.01003339868427122</v>
+        <v>0.003042293445344811</v>
       </c>
       <c r="P17">
-        <v>0.01003339868427122</v>
+        <v>0.003042293445344811</v>
       </c>
       <c r="Q17">
-        <v>0.1184263511413333</v>
+        <v>0.03556376845466667</v>
       </c>
       <c r="R17">
-        <v>1.065837160272</v>
+        <v>0.320073916092</v>
       </c>
       <c r="S17">
-        <v>0.00270694910015398</v>
+        <v>0.001088756547639979</v>
       </c>
       <c r="T17">
-        <v>0.00270694910015398</v>
+        <v>0.001088756547639979</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1541,10 +1541,10 @@
         <v>0.934476</v>
       </c>
       <c r="I18">
-        <v>0.2697938341070317</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="J18">
-        <v>0.2697938341070316</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1334676666666667</v>
+        <v>0.057203</v>
       </c>
       <c r="N18">
-        <v>0.4004030000000001</v>
+        <v>0.171609</v>
       </c>
       <c r="O18">
-        <v>0.003522270346263323</v>
+        <v>0.001524259922462761</v>
       </c>
       <c r="P18">
-        <v>0.003522270346263324</v>
+        <v>0.001524259922462761</v>
       </c>
       <c r="Q18">
-        <v>0.04157411042533334</v>
+        <v>0.017818276876</v>
       </c>
       <c r="R18">
-        <v>0.3741669938280001</v>
+        <v>0.160364491884</v>
       </c>
       <c r="S18">
-        <v>0.000950286821479884</v>
+        <v>0.0005454924058775162</v>
       </c>
       <c r="T18">
-        <v>0.000950286821479884</v>
+        <v>0.0005454924058775161</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1603,40 +1603,40 @@
         <v>0.934476</v>
       </c>
       <c r="I19">
-        <v>0.2697938341070317</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="J19">
-        <v>0.2697938341070316</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.060478</v>
+        <v>0.244693</v>
       </c>
       <c r="N19">
-        <v>0.181434</v>
+        <v>0.7340789999999999</v>
       </c>
       <c r="O19">
-        <v>0.001596040983718752</v>
+        <v>0.006520212807146136</v>
       </c>
       <c r="P19">
-        <v>0.001596040983718753</v>
+        <v>0.006520212807146136</v>
       </c>
       <c r="Q19">
-        <v>0.018838413176</v>
+        <v>0.07621991195599999</v>
       </c>
       <c r="R19">
-        <v>0.169545718584</v>
+        <v>0.6859792076039999</v>
       </c>
       <c r="S19">
-        <v>0.0004306020163894407</v>
+        <v>0.002333412115997187</v>
       </c>
       <c r="T19">
-        <v>0.0004306020163894407</v>
+        <v>0.002333412115997187</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.08455500000000001</v>
+        <v>0.08275166666666667</v>
       </c>
       <c r="H20">
-        <v>0.253665</v>
+        <v>0.248255</v>
       </c>
       <c r="I20">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500056</v>
       </c>
       <c r="J20">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500057</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>34.27278133333333</v>
+        <v>34.08366866666667</v>
       </c>
       <c r="N20">
-        <v>102.818344</v>
+        <v>102.251006</v>
       </c>
       <c r="O20">
-        <v>0.9044737530016045</v>
+        <v>0.9082105861423315</v>
       </c>
       <c r="P20">
-        <v>0.9044737530016046</v>
+        <v>0.9082105861423314</v>
       </c>
       <c r="Q20">
-        <v>2.89793502564</v>
+        <v>2.820480388281111</v>
       </c>
       <c r="R20">
-        <v>26.08141523076</v>
+        <v>25.38432349453</v>
       </c>
       <c r="S20">
-        <v>0.06624000937594521</v>
+        <v>0.08634676873868409</v>
       </c>
       <c r="T20">
-        <v>0.06624000937594522</v>
+        <v>0.08634676873868409</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.08455500000000001</v>
+        <v>0.08275166666666667</v>
       </c>
       <c r="H21">
-        <v>0.253665</v>
+        <v>0.248255</v>
       </c>
       <c r="I21">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500056</v>
       </c>
       <c r="J21">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500057</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.958342</v>
       </c>
       <c r="O21">
-        <v>0.07880486004921358</v>
+        <v>0.07956949625203165</v>
       </c>
       <c r="P21">
-        <v>0.0788048600492136</v>
+        <v>0.07956949625203165</v>
       </c>
       <c r="Q21">
-        <v>0.25249086927</v>
+        <v>0.2471059103566667</v>
       </c>
       <c r="R21">
-        <v>2.27241782343</v>
+        <v>2.22395319321</v>
       </c>
       <c r="S21">
-        <v>0.005771350081974902</v>
+        <v>0.007564951340977914</v>
       </c>
       <c r="T21">
-        <v>0.005771350081974904</v>
+        <v>0.007564951340977915</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.08455500000000001</v>
+        <v>0.08275166666666667</v>
       </c>
       <c r="H22">
-        <v>0.253665</v>
+        <v>0.248255</v>
       </c>
       <c r="I22">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500056</v>
       </c>
       <c r="J22">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500057</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.059479</v>
+        <v>0.04252533333333333</v>
       </c>
       <c r="N22">
-        <v>0.178437</v>
+        <v>0.127576</v>
       </c>
       <c r="O22">
-        <v>0.001569676934928531</v>
+        <v>0.001133151430683177</v>
       </c>
       <c r="P22">
-        <v>0.001569676934928531</v>
+        <v>0.001133151430683176</v>
       </c>
       <c r="Q22">
-        <v>0.005029246845</v>
+        <v>0.003519042208888889</v>
       </c>
       <c r="R22">
-        <v>0.045263221605</v>
+        <v>0.03167137988</v>
       </c>
       <c r="S22">
-        <v>0.0001149568072504215</v>
+        <v>0.0001077326844941395</v>
       </c>
       <c r="T22">
-        <v>0.0001149568072504215</v>
+        <v>0.0001077326844941395</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,14 +1830,14 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
         <v>1</v>
       </c>
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.08455500000000001</v>
+        <v>0.08275166666666667</v>
       </c>
       <c r="H23">
-        <v>0.253665</v>
+        <v>0.248255</v>
       </c>
       <c r="I23">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500056</v>
       </c>
       <c r="J23">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500057</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3801906666666666</v>
+        <v>0.1141723333333333</v>
       </c>
       <c r="N23">
-        <v>1.140572</v>
+        <v>0.342517</v>
       </c>
       <c r="O23">
-        <v>0.01003339868427122</v>
+        <v>0.003042293445344811</v>
       </c>
       <c r="P23">
-        <v>0.01003339868427122</v>
+        <v>0.003042293445344811</v>
       </c>
       <c r="Q23">
-        <v>0.03214702182</v>
+        <v>0.009447950870555557</v>
       </c>
       <c r="R23">
-        <v>0.28932319638</v>
+        <v>0.08503155783500001</v>
       </c>
       <c r="S23">
-        <v>0.0007348056488241104</v>
+        <v>0.000289241517956976</v>
       </c>
       <c r="T23">
-        <v>0.0007348056488241105</v>
+        <v>0.000289241517956976</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.08455500000000001</v>
+        <v>0.08275166666666667</v>
       </c>
       <c r="H24">
-        <v>0.253665</v>
+        <v>0.248255</v>
       </c>
       <c r="I24">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500056</v>
       </c>
       <c r="J24">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500057</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1334676666666667</v>
+        <v>0.057203</v>
       </c>
       <c r="N24">
-        <v>0.4004030000000001</v>
+        <v>0.171609</v>
       </c>
       <c r="O24">
-        <v>0.003522270346263323</v>
+        <v>0.001524259922462761</v>
       </c>
       <c r="P24">
-        <v>0.003522270346263324</v>
+        <v>0.001524259922462761</v>
       </c>
       <c r="Q24">
-        <v>0.011285358555</v>
+        <v>0.004733643588333333</v>
       </c>
       <c r="R24">
-        <v>0.101568226995</v>
+        <v>0.042602792295</v>
       </c>
       <c r="S24">
-        <v>0.0002579568726973136</v>
+        <v>0.0001449167418115851</v>
       </c>
       <c r="T24">
-        <v>0.0002579568726973136</v>
+        <v>0.0001449167418115851</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1969,46 +1969,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.08455500000000001</v>
+        <v>0.08275166666666667</v>
       </c>
       <c r="H25">
-        <v>0.253665</v>
+        <v>0.248255</v>
       </c>
       <c r="I25">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500056</v>
       </c>
       <c r="J25">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500057</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.060478</v>
+        <v>0.244693</v>
       </c>
       <c r="N25">
-        <v>0.181434</v>
+        <v>0.7340789999999999</v>
       </c>
       <c r="O25">
-        <v>0.001596040983718752</v>
+        <v>0.006520212807146136</v>
       </c>
       <c r="P25">
-        <v>0.001596040983718753</v>
+        <v>0.006520212807146136</v>
       </c>
       <c r="Q25">
-        <v>0.00511371729</v>
+        <v>0.02024875357166666</v>
       </c>
       <c r="R25">
-        <v>0.04602345561</v>
+        <v>0.182238782145</v>
       </c>
       <c r="S25">
-        <v>0.0001168876038415406</v>
+        <v>0.0006198995210758559</v>
       </c>
       <c r="T25">
-        <v>0.0001168876038415406</v>
+        <v>0.000619899521075856</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.3595576666666667</v>
+        <v>0.08406599999999999</v>
       </c>
       <c r="H26">
-        <v>1.078673</v>
+        <v>0.252198</v>
       </c>
       <c r="I26">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891401</v>
       </c>
       <c r="J26">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891403</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.27278133333333</v>
+        <v>34.08366866666667</v>
       </c>
       <c r="N26">
-        <v>102.818344</v>
+        <v>102.251006</v>
       </c>
       <c r="O26">
-        <v>0.9044737530016045</v>
+        <v>0.9082105861423315</v>
       </c>
       <c r="P26">
-        <v>0.9044737530016046</v>
+        <v>0.9082105861423314</v>
       </c>
       <c r="Q26">
-        <v>12.32304128639022</v>
+        <v>2.865277690132</v>
       </c>
       <c r="R26">
-        <v>110.907371577512</v>
+        <v>25.787499211188</v>
       </c>
       <c r="S26">
-        <v>0.2816758702760686</v>
+        <v>0.0877182025834672</v>
       </c>
       <c r="T26">
-        <v>0.2816758702760686</v>
+        <v>0.0877182025834672</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.3595576666666667</v>
+        <v>0.08406599999999999</v>
       </c>
       <c r="H27">
-        <v>1.078673</v>
+        <v>0.252198</v>
       </c>
       <c r="I27">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891401</v>
       </c>
       <c r="J27">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891403</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.958342</v>
       </c>
       <c r="O27">
-        <v>0.07880486004921358</v>
+        <v>0.07956949625203165</v>
       </c>
       <c r="P27">
-        <v>0.0788048600492136</v>
+        <v>0.07956949625203165</v>
       </c>
       <c r="Q27">
-        <v>1.073680182240667</v>
+        <v>0.251030659524</v>
       </c>
       <c r="R27">
-        <v>9.663121640166001</v>
+        <v>2.259275935716</v>
       </c>
       <c r="S27">
-        <v>0.02454181501970754</v>
+        <v>0.007685104422033585</v>
       </c>
       <c r="T27">
-        <v>0.02454181501970754</v>
+        <v>0.007685104422033586</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.3595576666666667</v>
+        <v>0.08406599999999999</v>
       </c>
       <c r="H28">
-        <v>1.078673</v>
+        <v>0.252198</v>
       </c>
       <c r="I28">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891401</v>
       </c>
       <c r="J28">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891403</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2173,28 +2173,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.059479</v>
+        <v>0.04252533333333333</v>
       </c>
       <c r="N28">
-        <v>0.178437</v>
+        <v>0.127576</v>
       </c>
       <c r="O28">
-        <v>0.001569676934928531</v>
+        <v>0.001133151430683177</v>
       </c>
       <c r="P28">
-        <v>0.001569676934928531</v>
+        <v>0.001133151430683176</v>
       </c>
       <c r="Q28">
-        <v>0.02138613045566666</v>
+        <v>0.003574934671999999</v>
       </c>
       <c r="R28">
-        <v>0.192475174101</v>
+        <v>0.032174412048</v>
       </c>
       <c r="S28">
-        <v>0.0004888368681025523</v>
+        <v>0.0001094437878957241</v>
       </c>
       <c r="T28">
-        <v>0.0004888368681025523</v>
+        <v>0.0001094437878957241</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,14 +2202,14 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
       <c r="E29">
         <v>1</v>
       </c>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.3595576666666667</v>
+        <v>0.08406599999999999</v>
       </c>
       <c r="H29">
-        <v>1.078673</v>
+        <v>0.252198</v>
       </c>
       <c r="I29">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891401</v>
       </c>
       <c r="J29">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891403</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3801906666666666</v>
+        <v>0.1141723333333333</v>
       </c>
       <c r="N29">
-        <v>1.140572</v>
+        <v>0.342517</v>
       </c>
       <c r="O29">
-        <v>0.01003339868427122</v>
+        <v>0.003042293445344811</v>
       </c>
       <c r="P29">
-        <v>0.01003339868427122</v>
+        <v>0.003042293445344811</v>
       </c>
       <c r="Q29">
-        <v>0.1367004689951111</v>
+        <v>0.009598011373999999</v>
       </c>
       <c r="R29">
-        <v>1.230304220956</v>
+        <v>0.086382102366</v>
       </c>
       <c r="S29">
-        <v>0.003124652646735062</v>
+        <v>0.0002938355011810978</v>
       </c>
       <c r="T29">
-        <v>0.003124652646735062</v>
+        <v>0.0002938355011810978</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.3595576666666667</v>
+        <v>0.08406599999999999</v>
       </c>
       <c r="H30">
-        <v>1.078673</v>
+        <v>0.252198</v>
       </c>
       <c r="I30">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891401</v>
       </c>
       <c r="J30">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891403</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.1334676666666667</v>
+        <v>0.057203</v>
       </c>
       <c r="N30">
-        <v>0.4004030000000001</v>
+        <v>0.171609</v>
       </c>
       <c r="O30">
-        <v>0.003522270346263323</v>
+        <v>0.001524259922462761</v>
       </c>
       <c r="P30">
-        <v>0.003522270346263324</v>
+        <v>0.001524259922462761</v>
       </c>
       <c r="Q30">
-        <v>0.04798932280211111</v>
+        <v>0.004808827397999999</v>
       </c>
       <c r="R30">
-        <v>0.4319039052190001</v>
+        <v>0.04327944658199999</v>
       </c>
       <c r="S30">
-        <v>0.001096923555646342</v>
+        <v>0.0001472184344782507</v>
       </c>
       <c r="T30">
-        <v>0.001096923555646342</v>
+        <v>0.0001472184344782507</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,418 +2341,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.3595576666666667</v>
+        <v>0.08406599999999999</v>
       </c>
       <c r="H31">
-        <v>1.078673</v>
+        <v>0.252198</v>
       </c>
       <c r="I31">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891401</v>
       </c>
       <c r="J31">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891403</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.060478</v>
+        <v>0.244693</v>
       </c>
       <c r="N31">
-        <v>0.181434</v>
+        <v>0.7340789999999999</v>
       </c>
       <c r="O31">
-        <v>0.001596040983718752</v>
+        <v>0.006520212807146136</v>
       </c>
       <c r="P31">
-        <v>0.001596040983718753</v>
+        <v>0.006520212807146136</v>
       </c>
       <c r="Q31">
-        <v>0.02174532856466667</v>
+        <v>0.02057036173799999</v>
       </c>
       <c r="R31">
-        <v>0.195707957082</v>
+        <v>0.185133255642</v>
       </c>
       <c r="S31">
-        <v>0.0004970472958372898</v>
+        <v>0.0006297452998581648</v>
       </c>
       <c r="T31">
-        <v>0.0004970472958372898</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.2907416666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.872225</v>
-      </c>
-      <c r="I32">
-        <v>0.2518212634182213</v>
-      </c>
-      <c r="J32">
-        <v>0.2518212634182212</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>34.27278133333333</v>
-      </c>
-      <c r="N32">
-        <v>102.818344</v>
-      </c>
-      <c r="O32">
-        <v>0.9044737530016045</v>
-      </c>
-      <c r="P32">
-        <v>0.9044737530016046</v>
-      </c>
-      <c r="Q32">
-        <v>9.964525566155556</v>
-      </c>
-      <c r="R32">
-        <v>89.68073009539999</v>
-      </c>
-      <c r="S32">
-        <v>0.2277657232094842</v>
-      </c>
-      <c r="T32">
-        <v>0.2277657232094842</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.2907416666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.872225</v>
-      </c>
-      <c r="I33">
-        <v>0.2518212634182213</v>
-      </c>
-      <c r="J33">
-        <v>0.2518212634182212</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.986114</v>
-      </c>
-      <c r="N33">
-        <v>8.958342</v>
-      </c>
-      <c r="O33">
-        <v>0.07880486004921358</v>
-      </c>
-      <c r="P33">
-        <v>0.0788048600492136</v>
-      </c>
-      <c r="Q33">
-        <v>0.8681877612166667</v>
-      </c>
-      <c r="R33">
-        <v>7.81368985095</v>
-      </c>
-      <c r="S33">
-        <v>0.01984473942108907</v>
-      </c>
-      <c r="T33">
-        <v>0.01984473942108907</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.2907416666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.872225</v>
-      </c>
-      <c r="I34">
-        <v>0.2518212634182213</v>
-      </c>
-      <c r="J34">
-        <v>0.2518212634182212</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.059479</v>
-      </c>
-      <c r="N34">
-        <v>0.178437</v>
-      </c>
-      <c r="O34">
-        <v>0.001569676934928531</v>
-      </c>
-      <c r="P34">
-        <v>0.001569676934928531</v>
-      </c>
-      <c r="Q34">
-        <v>0.01729302359166666</v>
-      </c>
-      <c r="R34">
-        <v>0.155637212325</v>
-      </c>
-      <c r="S34">
-        <v>0.0003952780289121436</v>
-      </c>
-      <c r="T34">
-        <v>0.0003952780289121437</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.2907416666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.872225</v>
-      </c>
-      <c r="I35">
-        <v>0.2518212634182213</v>
-      </c>
-      <c r="J35">
-        <v>0.2518212634182212</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.3801906666666666</v>
-      </c>
-      <c r="N35">
-        <v>1.140572</v>
-      </c>
-      <c r="O35">
-        <v>0.01003339868427122</v>
-      </c>
-      <c r="P35">
-        <v>0.01003339868427122</v>
-      </c>
-      <c r="Q35">
-        <v>0.1105372680777778</v>
-      </c>
-      <c r="R35">
-        <v>0.9948354127</v>
-      </c>
-      <c r="S35">
-        <v>0.002526623133051898</v>
-      </c>
-      <c r="T35">
-        <v>0.002526623133051898</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.2907416666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.872225</v>
-      </c>
-      <c r="I36">
-        <v>0.2518212634182213</v>
-      </c>
-      <c r="J36">
-        <v>0.2518212634182212</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.1334676666666667</v>
-      </c>
-      <c r="N36">
-        <v>0.4004030000000001</v>
-      </c>
-      <c r="O36">
-        <v>0.003522270346263323</v>
-      </c>
-      <c r="P36">
-        <v>0.003522270346263324</v>
-      </c>
-      <c r="Q36">
-        <v>0.03880461185277778</v>
-      </c>
-      <c r="R36">
-        <v>0.3492415066750001</v>
-      </c>
-      <c r="S36">
-        <v>0.0008869825686965656</v>
-      </c>
-      <c r="T36">
-        <v>0.0008869825686965657</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.2907416666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.872225</v>
-      </c>
-      <c r="I37">
-        <v>0.2518212634182213</v>
-      </c>
-      <c r="J37">
-        <v>0.2518212634182212</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.060478</v>
-      </c>
-      <c r="N37">
-        <v>0.181434</v>
-      </c>
-      <c r="O37">
-        <v>0.001596040983718752</v>
-      </c>
-      <c r="P37">
-        <v>0.001596040983718753</v>
-      </c>
-      <c r="Q37">
-        <v>0.01758347451666667</v>
-      </c>
-      <c r="R37">
-        <v>0.15825127065</v>
-      </c>
-      <c r="S37">
-        <v>0.0004019170569873169</v>
-      </c>
-      <c r="T37">
-        <v>0.0004019170569873169</v>
+        <v>0.0006297452998581648</v>
       </c>
     </row>
   </sheetData>
